--- a/Lab6/Lab 6 SAWA.xlsx
+++ b/Lab6/Lab 6 SAWA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stat201\Lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9050D7C-9D98-499E-8A41-6404EEF73FBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A9E506-AE8F-4729-9EDF-0040476B7568}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,11 +673,11 @@
       </c>
       <c r="H6" s="3">
         <f ca="1">COUNTIF(I6:AF6,TRUE)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="b">
         <f ca="1">RAND()&lt;$E$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="b">
         <f t="shared" ref="J6:AF6" ca="1" si="0">RAND()&lt;$E$2</f>
@@ -689,7 +689,7 @@
       </c>
       <c r="L6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -697,11 +697,11 @@
       </c>
       <c r="N6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="R6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="V6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="X6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -753,11 +753,11 @@
       </c>
       <c r="AB6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="2" t="b">
         <f t="shared" ca="1" si="0"/>
